--- a/election_votar_data/LOHAGARA/BARAHATIA/152542/152542_com_1703_male_without_photo_97_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/BARAHATIA/152542/152542_com_1703_male_without_photo_97_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="46.5" customWidth="1" min="4" max="4"/>
     <col width="39.5" customWidth="1" min="5" max="5"/>
-    <col width="44.5" customWidth="1" min="6" max="6"/>
+    <col width="26.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>ছাহিদুল জন্ম তারিখ: ০৯/০৭/২০০১</t>
+          <t>ড্রাইভার</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
@@ -49035,7 +49035,7 @@
       </c>
       <c r="F1157" s="3" t="inlineStr">
         <is>
-          <t>ব্যাংকার জন্ম তারিখ:০১/০১/১৯৯১</t>
+          <t>ব্যাংকার</t>
         </is>
       </c>
       <c r="G1157" s="3" t="inlineStr">
@@ -56091,7 +56091,7 @@
       </c>
       <c r="F1325" s="3" t="inlineStr">
         <is>
-          <t>ছাহিদুল জন্ম তারিখ: ০৫/০৬/২০০১</t>
+          <t xml:space="preserve"> ড্রাইভার</t>
         </is>
       </c>
       <c r="G1325" s="3" t="inlineStr">
@@ -58191,7 +58191,7 @@
       </c>
       <c r="F1375" s="3" t="inlineStr">
         <is>
-          <t>ছাহিদুল জন্ম তারিখ: ২৪/১০/১৯৮৫</t>
+          <t xml:space="preserve"> ড্রাইভার</t>
         </is>
       </c>
       <c r="G1375" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/BARAHATIA/152542/152542_com_1703_male_without_photo_97_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/BARAHATIA/152542/152542_com_1703_male_without_photo_97_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="46.5" customWidth="1" min="4" max="4"/>
     <col width="39.5" customWidth="1" min="5" max="5"/>
-    <col width="26.5" customWidth="1" min="6" max="6"/>
+    <col width="44.5" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>ড্রাইভার</t>
+          <t>ছাহিদুল জন্ম তারিখ: ০৯/০৭/২০০১</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
@@ -49035,7 +49035,7 @@
       </c>
       <c r="F1157" s="3" t="inlineStr">
         <is>
-          <t>ব্যাংকার</t>
+          <t>ব্যাংকার জন্ম তারিখ:০১/০১/১৯৯১</t>
         </is>
       </c>
       <c r="G1157" s="3" t="inlineStr">
@@ -56091,7 +56091,7 @@
       </c>
       <c r="F1325" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ড্রাইভার</t>
+          <t>ছাহিদুল জন্ম তারিখ: ০৫/০৬/২০০১</t>
         </is>
       </c>
       <c r="G1325" s="3" t="inlineStr">
@@ -58191,7 +58191,7 @@
       </c>
       <c r="F1375" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ড্রাইভার</t>
+          <t>ছাহিদুল জন্ম তারিখ: ২৪/১০/১৯৮৫</t>
         </is>
       </c>
       <c r="G1375" s="3" t="inlineStr">
